--- a/Powder/Templates/Minutes G2.xlsx
+++ b/Powder/Templates/Minutes G2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charden/Desktop/curr_Chris/Powder/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charden/Desktop/curr_Chris/Sportsdada/sportsdada/Powder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C4BBFE-A842-AC4D-9019-4FEE7C36839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D6420-0BC7-8145-826C-E1DC4F585513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="15340" activeTab="6" xr2:uid="{C1019B66-1F64-450D-A1A7-B73F342DACE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="15340" xr2:uid="{C1019B66-1F64-450D-A1A7-B73F342DACE7}"/>
   </bookViews>
   <sheets>
     <sheet name="G2 Q1" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t>Black</t>
   </si>
@@ -87,9 +109,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t>Tre</t>
   </si>
   <si>
@@ -99,37 +118,10 @@
     <t>Chapman</t>
   </si>
   <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Isaiah</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
-    <t>Dakarai</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
     <t>Hodges</t>
-  </si>
-  <si>
-    <t>Makol</t>
-  </si>
-  <si>
-    <t>Mawien</t>
   </si>
   <si>
     <t>Corbin</t>
@@ -138,22 +130,7 @@
     <t>Roberts</t>
   </si>
   <si>
-    <t>Tone</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t>Charles</t>
-  </si>
-  <si>
-    <t>Nunn</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Sly</t>
   </si>
   <si>
     <t>Duce</t>
@@ -162,25 +139,10 @@
     <t>Zaid</t>
   </si>
   <si>
-    <t>Jaleel</t>
-  </si>
-  <si>
-    <t>Rayjon</t>
-  </si>
-  <si>
     <t>Kentrell</t>
   </si>
   <si>
     <t>Barkley</t>
-  </si>
-  <si>
-    <t>Dontay</t>
-  </si>
-  <si>
-    <t>Bassett</t>
-  </si>
-  <si>
-    <t>Kyndahl</t>
   </si>
   <si>
     <t>Hill</t>
@@ -198,286 +160,19 @@
     <t>Bullock</t>
   </si>
   <si>
-    <t>Brendan</t>
-  </si>
-  <si>
     <t>Morris</t>
-  </si>
-  <si>
-    <t>Demarcus</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Clarke</t>
-  </si>
-  <si>
-    <t>Marquis</t>
-  </si>
-  <si>
-    <t>OShea</t>
-  </si>
-  <si>
-    <t>Jaren</t>
-  </si>
-  <si>
-    <t>McKnight</t>
-  </si>
-  <si>
-    <t>Elijah</t>
-  </si>
-  <si>
-    <t>Davy</t>
   </si>
   <si>
     <t>Jaxon</t>
   </si>
   <si>
-    <t>Brenchley</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Payne</t>
-  </si>
-  <si>
-    <t>Jaden</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Dason</t>
-  </si>
-  <si>
-    <t>Youngblood</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Trevin</t>
-  </si>
-  <si>
-    <t>Knell</t>
-  </si>
-  <si>
-    <t>Hank</t>
-  </si>
-  <si>
-    <t>Bushell</t>
-  </si>
-  <si>
-    <t>Keon</t>
-  </si>
-  <si>
-    <t>Burgout</t>
-  </si>
-  <si>
-    <t>Kaleb</t>
-  </si>
-  <si>
-    <t>Wilborn</t>
-  </si>
-  <si>
-    <t>Arok</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Kadoguchi</t>
-  </si>
-  <si>
-    <t>Deng</t>
-  </si>
-  <si>
-    <t>Mayar</t>
-  </si>
-  <si>
-    <t>Zach</t>
-  </si>
-  <si>
-    <t>Cassita</t>
-  </si>
-  <si>
-    <t>Zues</t>
-  </si>
-  <si>
     <t>Martinez</t>
-  </si>
-  <si>
-    <t>Dom</t>
-  </si>
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>Gerad</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Trigga</t>
-  </si>
-  <si>
-    <t>Trei</t>
-  </si>
-  <si>
-    <t>Lual</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Adeyemi</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Gach</t>
-  </si>
-  <si>
-    <t>Dastrop</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Quae</t>
-  </si>
-  <si>
-    <t>Furlow</t>
-  </si>
-  <si>
-    <t>Gazdik</t>
-  </si>
-  <si>
-    <t>Cory</t>
-  </si>
-  <si>
-    <t>Calvert</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Seeley</t>
-  </si>
-  <si>
-    <t>Kylor</t>
-  </si>
-  <si>
-    <t>Kelley</t>
-  </si>
-  <si>
-    <t>Erickson</t>
-  </si>
-  <si>
-    <t>Sedrick</t>
-  </si>
-  <si>
-    <t>Barefield</t>
-  </si>
-  <si>
-    <t>Mckay</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Khalil</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Payton</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>Caleb</t>
-  </si>
-  <si>
-    <t>Lohner</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Dupre</t>
   </si>
   <si>
     <t>Covington</t>
   </si>
   <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>Humphrey</t>
-  </si>
-  <si>
-    <t>Festus</t>
-  </si>
-  <si>
-    <t>Ndumanya</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Haffner</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Watson</t>
-  </si>
-  <si>
-    <t>Quincy</t>
-  </si>
-  <si>
-    <t>McGriff</t>
-  </si>
-  <si>
     <t>Nick</t>
-  </si>
-  <si>
-    <t>Chase</t>
   </si>
   <si>
     <t>Adam</t>
@@ -489,9 +184,6 @@
     <t>Cuff</t>
   </si>
   <si>
-    <t>Jackson</t>
-  </si>
-  <si>
     <t>Pollard</t>
   </si>
   <si>
@@ -501,256 +193,16 @@
     <t>Garff</t>
   </si>
   <si>
-    <t>Brinson</t>
-  </si>
-  <si>
-    <t>Joyce</t>
-  </si>
-  <si>
-    <t>Neema</t>
-  </si>
-  <si>
-    <t>Namdar</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Velez</t>
-  </si>
-  <si>
     <t>Tyus</t>
   </si>
   <si>
     <t>Jefferson</t>
   </si>
   <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Trey</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Jael</t>
-  </si>
-  <si>
-    <t>Fardaws</t>
-  </si>
-  <si>
-    <t>Aimaq</t>
-  </si>
-  <si>
-    <t>Yoeli</t>
-  </si>
-  <si>
-    <t>Childs</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
-  </si>
-  <si>
-    <t>Paulos</t>
-  </si>
-  <si>
-    <t>Zac</t>
-  </si>
-  <si>
-    <t>Seljaas</t>
-  </si>
-  <si>
-    <t>Humphries</t>
-  </si>
-  <si>
-    <t>Zahir</t>
-  </si>
-  <si>
-    <t>Porter</t>
-  </si>
-  <si>
-    <t>Averette</t>
-  </si>
-  <si>
-    <t>Decardo</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Mogbo</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Kozak</t>
-  </si>
-  <si>
-    <t>Seena</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Randolph</t>
-  </si>
-  <si>
-    <t>CJ</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Draney</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Bailey</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Briggs</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-  <si>
-    <t>Buys</t>
-  </si>
-  <si>
-    <t>Kamich</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Reid</t>
-  </si>
-  <si>
-    <t>Darrian</t>
-  </si>
-  <si>
-    <t>Deonte</t>
-  </si>
-  <si>
-    <t>Jarret</t>
-  </si>
-  <si>
-    <t>Ousmaine</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Berger</t>
-  </si>
-  <si>
-    <t>Orchard</t>
-  </si>
-  <si>
-    <t>Merril</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Van Dyke</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Battin</t>
-  </si>
-  <si>
-    <t>Danny</t>
-  </si>
-  <si>
-    <t>Jalen</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Zavon</t>
-  </si>
-  <si>
-    <t>Sean</t>
-  </si>
-  <si>
     <t>Harris</t>
-  </si>
-  <si>
-    <t>Fulton</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Nygren</t>
-  </si>
-  <si>
-    <t>Conner</t>
-  </si>
-  <si>
-    <t>Toolson</t>
-  </si>
-  <si>
-    <t>Dalton</t>
-  </si>
-  <si>
-    <t>Nixon</t>
-  </si>
-  <si>
-    <t>Harding</t>
-  </si>
-  <si>
-    <t>Colby</t>
-  </si>
-  <si>
-    <t>Leifson</t>
-  </si>
-  <si>
-    <t>Ibe</t>
-  </si>
-  <si>
-    <t>Gerlach</t>
-  </si>
-  <si>
-    <t>Trevor</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Evan</t>
-  </si>
-  <si>
-    <t>Troy</t>
   </si>
   <si>
     <t>Egan</t>
@@ -771,15 +223,6 @@
     <t>Lokeni</t>
   </si>
   <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Dowdell</t>
-  </si>
-  <si>
-    <t>Leonhardt</t>
-  </si>
-  <si>
     <t>Wil</t>
   </si>
   <si>
@@ -789,46 +232,133 @@
     <t>Tony</t>
   </si>
   <si>
-    <t>Quan</t>
-  </si>
-  <si>
-    <t>Rylan</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>Ian</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Royce</t>
-  </si>
-  <si>
-    <t>ONeal</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
     <t>Select Team Name</t>
   </si>
   <si>
     <t>Dwayne</t>
   </si>
   <si>
-    <t>Brekkott</t>
+    <t>Select Team</t>
+  </si>
+  <si>
+    <t>Team Egan</t>
+  </si>
+  <si>
+    <t>Casdon</t>
+  </si>
+  <si>
+    <t>Jardine</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Sawyer</t>
+  </si>
+  <si>
+    <t>Team Covington</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Mulibea</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Macea</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Hayhurst</t>
+  </si>
+  <si>
+    <t>Koroma</t>
+  </si>
+  <si>
+    <t>Heiden</t>
+  </si>
+  <si>
+    <t>Team Drisdom</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Vai</t>
+  </si>
+  <si>
+    <t>Brekott</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Markson</t>
+  </si>
+  <si>
+    <t>Team Bullock</t>
+  </si>
+  <si>
+    <t>Kyndayl</t>
+  </si>
+  <si>
+    <t>Nann</t>
+  </si>
+  <si>
+    <t>Marqus</t>
+  </si>
+  <si>
+    <t>Gilson</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Gallegos</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Burgon</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Brenden</t>
   </si>
 </sst>
 </file>
@@ -892,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -970,6 +506,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,6 +825,86 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58314894-21B6-A549-9C98-30BAE667893E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="203200"/>
+          <a:ext cx="5905500" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>So this sheet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t> is where you put in the roster info. Just fill it in like the example data. You can ignore column B &amp; G, they are helper functions so that the other sheets run smooth. It will fill in automatically (unless B goes past 100 rows, then just copy the formula and paste it in the extra rows).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1587,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB7466-370A-4333-A614-BC6A68244DE0}">
   <dimension ref="A1:BS31"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1606,10 +1223,10 @@
         <v>CLEAR</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="19" x14ac:dyDescent="0.2">
@@ -6637,11 +6254,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB628038-D373-A64B-A81E-6FE2EBBFB4C1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50929FC6-651A-8D49-8AEB-C37405F0B5C5}">
           <x14:formula1>
-            <xm:f>Rosters!$H$2:$H$14</xm:f>
+            <xm:f>Rosters!$G:$G</xm:f>
           </x14:formula1>
-          <xm:sqref>T1 D1</xm:sqref>
+          <xm:sqref>D1 T1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27278,22 +26895,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52229FC1-B3D9-D54E-A4FF-9AFB39912F4F}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -27305,314 +26924,291 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>259</v>
+      <c r="G1" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="str">
+        <v>59</v>
+      </c>
+      <c r="B2" s="18" t="str">
         <f>A2&amp;COUNTIF($A$2:$A2,A2)</f>
-        <v>Drisdom1</v>
+        <v>Team Egan1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="18" t="str" cm="1">
+        <f t="array" ref="G2:G6">_xlfn.UNIQUE(A2:A100)</f>
+        <v>Team Egan</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="str">
+        <v>59</v>
+      </c>
+      <c r="B3" s="18" t="str">
         <f>A3&amp;COUNTIF($A$2:$A3,A3)</f>
-        <v>Drisdom2</v>
+        <v>Team Egan2</v>
       </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+      <c r="G3" s="18" t="str">
+        <v>Team Covington</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="18" t="str">
+        <f>A4&amp;COUNTIF($A$2:$A4,A4)</f>
+        <v>Team Egan3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="str">
+        <v>Team Drisdom</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="18" t="str">
+        <f>A5&amp;COUNTIF($A$2:$A5,A5)</f>
+        <v>Team Egan4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
+      <c r="G5" s="18" t="str">
+        <v>Team Bullock</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="str">
-        <f>A4&amp;COUNTIF($A$2:$A4,A4)</f>
-        <v>Drisdom3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="18" t="str">
+        <f>A6&amp;COUNTIF($A$2:$A6,A6)</f>
+        <v>Team Egan5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="G6" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="str">
-        <f>A5&amp;COUNTIF($A$2:$A5,A5)</f>
-        <v>Drisdom4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="str">
-        <f>A6&amp;COUNTIF($A$2:$A6,A6)</f>
-        <v>Drisdom5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="str">
+        <v>59</v>
+      </c>
+      <c r="B7" s="18" t="str">
         <f>A7&amp;COUNTIF($A$2:$A7,A7)</f>
-        <v>Drisdom6</v>
+        <v>Team Egan6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="str">
+        <v>59</v>
+      </c>
+      <c r="B8" s="18" t="str">
         <f>A8&amp;COUNTIF($A$2:$A8,A8)</f>
-        <v>Drisdom7</v>
+        <v>Team Egan7</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="18" t="str">
+        <f>A9&amp;COUNTIF($A$2:$A9,A9)</f>
+        <v>Team Egan8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="18" t="str">
+        <f>A10&amp;COUNTIF($A$2:$A10,A10)</f>
+        <v>Team Egan9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>130</v>
+      <c r="E10">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="str">
-        <f>A9&amp;COUNTIF($A$2:$A9,A9)</f>
-        <v>Drisdom8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f>A11&amp;COUNTIF($A$2:$A11,A11)</f>
+        <v>Team Covington1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>A12&amp;COUNTIF($A$2:$A12,A12)</f>
+        <v>Team Covington2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f>A13&amp;COUNTIF($A$2:$A13,A13)</f>
+        <v>Team Covington3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f>A14&amp;COUNTIF($A$2:$A14,A14)</f>
+        <v>Team Covington4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f>A15&amp;COUNTIF($A$2:$A15,A15)</f>
+        <v>Team Covington5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="str">
-        <f>A10&amp;COUNTIF($A$2:$A10,A10)</f>
-        <v>Drisdom9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="str">
-        <f>A11&amp;COUNTIF($A$2:$A11,A11)</f>
-        <v>Drisdom10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <f>A12&amp;COUNTIF($A$2:$A12,A12)</f>
-        <v>Drisdom11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <f>A13&amp;COUNTIF($A$2:$A13,A13)</f>
-        <v>Drisdom12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="str">
-        <f>A14&amp;COUNTIF($A$2:$A14,A14)</f>
-        <v>Roberts1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="str">
-        <f>A15&amp;COUNTIF($A$2:$A15,A15)</f>
-        <v>Roberts2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="str">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18" t="str">
         <f>A16&amp;COUNTIF($A$2:$A16,A16)</f>
-        <v>Roberts3</v>
+        <v>Team Covington6</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -27620,341 +27216,341 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="str">
+        <v>66</v>
+      </c>
+      <c r="B17" s="18" t="str">
         <f>A17&amp;COUNTIF($A$2:$A17,A17)</f>
-        <v>Roberts4</v>
+        <v>Team Covington7</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="str">
+        <v>66</v>
+      </c>
+      <c r="B18" s="18" t="str">
         <f>A18&amp;COUNTIF($A$2:$A18,A18)</f>
-        <v>Roberts5</v>
+        <v>Team Covington8</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="str">
+        <v>66</v>
+      </c>
+      <c r="B19" s="18" t="str">
         <f>A19&amp;COUNTIF($A$2:$A19,A19)</f>
-        <v>Roberts6</v>
+        <v>Team Covington9</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="str">
+        <v>66</v>
+      </c>
+      <c r="B20" s="18" t="str">
         <f>A20&amp;COUNTIF($A$2:$A20,A20)</f>
-        <v>Roberts7</v>
+        <v>Team Covington10</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="str">
+        <v>66</v>
+      </c>
+      <c r="B21" s="18" t="str">
         <f>A21&amp;COUNTIF($A$2:$A21,A21)</f>
-        <v>Roberts8</v>
+        <v>Team Covington11</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="str">
+        <v>66</v>
+      </c>
+      <c r="B22" s="18" t="str">
         <f>A22&amp;COUNTIF($A$2:$A22,A22)</f>
-        <v>Roberts9</v>
+        <v>Team Covington12</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="str">
+        <v>79</v>
+      </c>
+      <c r="B23" s="18" t="str">
         <f>A23&amp;COUNTIF($A$2:$A23,A23)</f>
-        <v>Roberts10</v>
+        <v>Team Drisdom1</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="str">
+        <v>79</v>
+      </c>
+      <c r="B24" s="18" t="str">
         <f>A24&amp;COUNTIF($A$2:$A24,A24)</f>
-        <v>Roberts11</v>
+        <v>Team Drisdom2</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="str">
+        <v>79</v>
+      </c>
+      <c r="B25" s="18" t="str">
         <f>A25&amp;COUNTIF($A$2:$A25,A25)</f>
-        <v>Roberts12</v>
+        <v>Team Drisdom3</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="str">
+        <v>79</v>
+      </c>
+      <c r="B26" s="18" t="str">
         <f>A26&amp;COUNTIF($A$2:$A26,A26)</f>
-        <v>Roberts13</v>
+        <v>Team Drisdom4</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="str">
+        <v>79</v>
+      </c>
+      <c r="B27" s="18" t="str">
         <f>A27&amp;COUNTIF($A$2:$A27,A27)</f>
-        <v>Clarke1</v>
+        <v>Team Drisdom5</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="str">
+        <v>79</v>
+      </c>
+      <c r="B28" s="18" t="str">
         <f>A28&amp;COUNTIF($A$2:$A28,A28)</f>
-        <v>Clarke2</v>
+        <v>Team Drisdom6</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="str">
+        <v>79</v>
+      </c>
+      <c r="B29" s="18" t="str">
         <f>A29&amp;COUNTIF($A$2:$A29,A29)</f>
-        <v>Clarke3</v>
+        <v>Team Drisdom7</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="str">
+        <v>79</v>
+      </c>
+      <c r="B30" s="18" t="str">
         <f>A30&amp;COUNTIF($A$2:$A30,A30)</f>
-        <v>Clarke4</v>
+        <v>Team Drisdom8</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="str">
+        <v>79</v>
+      </c>
+      <c r="B31" s="18" t="str">
         <f>A31&amp;COUNTIF($A$2:$A31,A31)</f>
-        <v>Clarke5</v>
+        <v>Team Drisdom9</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="str">
+        <v>79</v>
+      </c>
+      <c r="B32" s="18" t="str">
         <f>A32&amp;COUNTIF($A$2:$A32,A32)</f>
-        <v>Clarke6</v>
+        <v>Team Drisdom10</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="str">
+        <v>79</v>
+      </c>
+      <c r="B33" s="18" t="str">
         <f>A33&amp;COUNTIF($A$2:$A33,A33)</f>
-        <v>Clarke7</v>
+        <v>Team Drisdom11</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" t="str">
+        <v>87</v>
+      </c>
+      <c r="B34" s="18" t="str">
         <f>A34&amp;COUNTIF($A$2:$A34,A34)</f>
-        <v>Clarke8</v>
+        <v>Team Bullock1</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="str">
+        <v>87</v>
+      </c>
+      <c r="B35" s="18" t="str">
         <f>A35&amp;COUNTIF($A$2:$A35,A35)</f>
-        <v>Clarke9</v>
+        <v>Team Bullock2</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>21</v>
@@ -27962,1967 +27558,517 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="str">
+        <v>87</v>
+      </c>
+      <c r="B36" s="18" t="str">
         <f>A36&amp;COUNTIF($A$2:$A36,A36)</f>
-        <v>Clarke10</v>
+        <v>Team Bullock3</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="str">
+        <v>87</v>
+      </c>
+      <c r="B37" s="18" t="str">
         <f>A37&amp;COUNTIF($A$2:$A37,A37)</f>
-        <v>Clarke11</v>
+        <v>Team Bullock4</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="str">
+        <v>87</v>
+      </c>
+      <c r="B38" s="18" t="str">
         <f>A38&amp;COUNTIF($A$2:$A38,A38)</f>
-        <v>Clarke12</v>
+        <v>Team Bullock5</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="str">
+        <v>87</v>
+      </c>
+      <c r="B39" s="18" t="str">
         <f>A39&amp;COUNTIF($A$2:$A39,A39)</f>
-        <v>Arok1</v>
+        <v>Team Bullock6</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="str">
+        <v>87</v>
+      </c>
+      <c r="B40" s="18" t="str">
         <f>A40&amp;COUNTIF($A$2:$A40,A40)</f>
-        <v>Arok2</v>
+        <v>Team Bullock7</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="str">
+        <v>87</v>
+      </c>
+      <c r="B41" s="18" t="str">
         <f>A41&amp;COUNTIF($A$2:$A41,A41)</f>
-        <v>Arok3</v>
+        <v>Team Bullock8</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="str">
+        <v>87</v>
+      </c>
+      <c r="B42" s="18" t="str">
         <f>A42&amp;COUNTIF($A$2:$A42,A42)</f>
-        <v>Arok4</v>
+        <v>Team Bullock9</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="str">
+        <v>87</v>
+      </c>
+      <c r="B43" s="18" t="str">
         <f>A43&amp;COUNTIF($A$2:$A43,A43)</f>
-        <v>Arok5</v>
+        <v>Team Bullock10</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="str">
+        <v>87</v>
+      </c>
+      <c r="B44" s="18" t="str">
         <f>A44&amp;COUNTIF($A$2:$A44,A44)</f>
-        <v>Arok6</v>
+        <v>Team Bullock11</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="str">
+        <v>87</v>
+      </c>
+      <c r="B45" s="18" t="str">
         <f>A45&amp;COUNTIF($A$2:$A45,A45)</f>
-        <v>Arok7</v>
+        <v>Team Bullock12</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" t="str">
+      <c r="B46" s="18" t="str">
         <f>A46&amp;COUNTIF($A$2:$A46,A46)</f>
-        <v>Arok8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" t="str">
+      <c r="B47" s="18" t="str">
         <f>A47&amp;COUNTIF($A$2:$A47,A47)</f>
-        <v>Arok9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="str">
+      <c r="B48" s="18" t="str">
         <f>A48&amp;COUNTIF($A$2:$A48,A48)</f>
-        <v>Arok10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="str">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" t="str">
         <f>A49&amp;COUNTIF($A$2:$A49,A49)</f>
-        <v>Arok11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" t="str">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="18" t="str">
         <f>A50&amp;COUNTIF($A$2:$A50,A50)</f>
-        <v>Arok12</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="str">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="18" t="str">
         <f>A51&amp;COUNTIF($A$2:$A51,A51)</f>
-        <v>Dastrop1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="str">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="18" t="str">
         <f>A52&amp;COUNTIF($A$2:$A52,A52)</f>
-        <v>Dastrop2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="str">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="18" t="str">
         <f>A53&amp;COUNTIF($A$2:$A53,A53)</f>
-        <v>Dastrop3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="str">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="str">
         <f>A54&amp;COUNTIF($A$2:$A54,A54)</f>
-        <v>Dastrop4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="str">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="str">
         <f>A55&amp;COUNTIF($A$2:$A55,A55)</f>
-        <v>Dastrop5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="str">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="18" t="str">
         <f>A56&amp;COUNTIF($A$2:$A56,A56)</f>
-        <v>Dastrop6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" t="str">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="18" t="str">
         <f>A57&amp;COUNTIF($A$2:$A57,A57)</f>
-        <v>Dastrop7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" t="str">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="str">
         <f>A58&amp;COUNTIF($A$2:$A58,A58)</f>
-        <v>Dastrop8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" t="str">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="18" t="str">
         <f>A59&amp;COUNTIF($A$2:$A59,A59)</f>
-        <v>Dastrop9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" t="str">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="18" t="str">
         <f>A60&amp;COUNTIF($A$2:$A60,A60)</f>
-        <v>Dastrop10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="str">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="18" t="str">
         <f>A61&amp;COUNTIF($A$2:$A61,A61)</f>
-        <v>Dastrop11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" t="str">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="18" t="str">
         <f>A62&amp;COUNTIF($A$2:$A62,A62)</f>
-        <v>Dastrop12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="str">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="18" t="str">
         <f>A63&amp;COUNTIF($A$2:$A63,A63)</f>
-        <v>Dastrop13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" t="str">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="18" t="str">
         <f>A64&amp;COUNTIF($A$2:$A64,A64)</f>
-        <v>Dastrop14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" t="str">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="18" t="str">
         <f>A65&amp;COUNTIF($A$2:$A65,A65)</f>
-        <v>Covington1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="str">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="18" t="str">
         <f>A66&amp;COUNTIF($A$2:$A66,A66)</f>
-        <v>Covington2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E66" s="11"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" t="str">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="18" t="str">
         <f>A67&amp;COUNTIF($A$2:$A67,A67)</f>
-        <v>Covington3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" t="str">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="18" t="str">
         <f>A68&amp;COUNTIF($A$2:$A68,A68)</f>
-        <v>Covington4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" t="str">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="18" t="str">
         <f>A69&amp;COUNTIF($A$2:$A69,A69)</f>
-        <v>Covington5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" t="str">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="18" t="str">
         <f>A70&amp;COUNTIF($A$2:$A70,A70)</f>
-        <v>Covington6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="str">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="18" t="str">
         <f>A71&amp;COUNTIF($A$2:$A71,A71)</f>
-        <v>Covington7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" t="str">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="18" t="str">
         <f>A72&amp;COUNTIF($A$2:$A72,A72)</f>
-        <v>Covington8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" t="str">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="18" t="str">
         <f>A73&amp;COUNTIF($A$2:$A73,A73)</f>
-        <v>Covington9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" t="str">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="18" t="str">
         <f>A74&amp;COUNTIF($A$2:$A74,A74)</f>
-        <v>Covington10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" t="str">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="18" t="str">
         <f>A75&amp;COUNTIF($A$2:$A75,A75)</f>
-        <v>Covington11</v>
-      </c>
-      <c r="C75" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" t="str">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="18" t="str">
         <f>A76&amp;COUNTIF($A$2:$A76,A76)</f>
-        <v>Covington12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" t="str">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="18" t="str">
         <f>A77&amp;COUNTIF($A$2:$A77,A77)</f>
-        <v>Covington13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="str">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="18" t="str">
         <f>A78&amp;COUNTIF($A$2:$A78,A78)</f>
-        <v>Joyce1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" t="str">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="18" t="str">
         <f>A79&amp;COUNTIF($A$2:$A79,A79)</f>
-        <v>Joyce2</v>
-      </c>
-      <c r="C79" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" t="str">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="18" t="str">
         <f>A80&amp;COUNTIF($A$2:$A80,A80)</f>
-        <v>Joyce3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" t="str">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="18" t="str">
         <f>A81&amp;COUNTIF($A$2:$A81,A81)</f>
-        <v>Joyce4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" t="str">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="18" t="str">
         <f>A82&amp;COUNTIF($A$2:$A82,A82)</f>
-        <v>Joyce5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83" t="str">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="18" t="str">
         <f>A83&amp;COUNTIF($A$2:$A83,A83)</f>
-        <v>Joyce6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>164</v>
-      </c>
-      <c r="D83" t="s">
-        <v>154</v>
-      </c>
-      <c r="E83">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>154</v>
-      </c>
-      <c r="B84" t="str">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="18" t="str">
         <f>A84&amp;COUNTIF($A$2:$A84,A84)</f>
-        <v>Joyce7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E84">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="str">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="18" t="str">
         <f>A85&amp;COUNTIF($A$2:$A85,A85)</f>
-        <v>Joyce8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>166</v>
-      </c>
-      <c r="D85" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" t="str">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="18" t="str">
         <f>A86&amp;COUNTIF($A$2:$A86,A86)</f>
-        <v>Joyce9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" t="str">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="18" t="str">
         <f>A87&amp;COUNTIF($A$2:$A87,A87)</f>
-        <v>Joyce10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" t="s">
-        <v>171</v>
-      </c>
-      <c r="E87">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" t="str">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="18" t="str">
         <f>A88&amp;COUNTIF($A$2:$A88,A88)</f>
-        <v>Joyce11</v>
-      </c>
-      <c r="C88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" t="str">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="18" t="str">
         <f>A89&amp;COUNTIF($A$2:$A89,A89)</f>
-        <v>Humphries1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" t="str">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="18" t="str">
         <f>A90&amp;COUNTIF($A$2:$A90,A90)</f>
-        <v>Humphries2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" t="s">
-        <v>177</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" t="str">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="18" t="str">
         <f>A91&amp;COUNTIF($A$2:$A91,A91)</f>
-        <v>Humphries3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D91" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" t="str">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="18" t="str">
         <f>A92&amp;COUNTIF($A$2:$A92,A92)</f>
-        <v>Humphries4</v>
-      </c>
-      <c r="C92" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" t="s">
-        <v>180</v>
-      </c>
-      <c r="E92">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" t="str">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="18" t="str">
         <f>A93&amp;COUNTIF($A$2:$A93,A93)</f>
-        <v>Humphries5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>162</v>
-      </c>
-      <c r="D93" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>174</v>
-      </c>
-      <c r="B94" t="str">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="18" t="str">
         <f>A94&amp;COUNTIF($A$2:$A94,A94)</f>
-        <v>Humphries6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D94" t="s">
-        <v>182</v>
-      </c>
-      <c r="E94">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" t="str">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="18" t="str">
         <f>A95&amp;COUNTIF($A$2:$A95,A95)</f>
-        <v>Humphries7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>183</v>
-      </c>
-      <c r="D95" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" t="str">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="18" t="str">
         <f>A96&amp;COUNTIF($A$2:$A96,A96)</f>
-        <v>Humphries8</v>
-      </c>
-      <c r="C96" t="s">
-        <v>71</v>
-      </c>
-      <c r="D96" t="s">
-        <v>174</v>
-      </c>
-      <c r="E96">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" t="str">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="18" t="str">
         <f>A97&amp;COUNTIF($A$2:$A97,A97)</f>
-        <v>Humphries9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>185</v>
-      </c>
-      <c r="D97" t="s">
-        <v>156</v>
-      </c>
-      <c r="E97">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" t="str">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="18" t="str">
         <f>A98&amp;COUNTIF($A$2:$A98,A98)</f>
-        <v>Humphries10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>186</v>
-      </c>
-      <c r="D98" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" t="str">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="18" t="str">
         <f>A99&amp;COUNTIF($A$2:$A99,A99)</f>
-        <v>Humphries11</v>
-      </c>
-      <c r="C99" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" t="s">
-        <v>188</v>
-      </c>
-      <c r="E99">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" t="str">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="18" t="str">
         <f>A100&amp;COUNTIF($A$2:$A100,A100)</f>
-        <v>Humphries12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>189</v>
-      </c>
-      <c r="D100" t="s">
-        <v>190</v>
-      </c>
-      <c r="E100">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>191</v>
-      </c>
-      <c r="B101" t="str">
-        <f>A101&amp;COUNTIF($A$2:$A101,A101)</f>
-        <v>Draney1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>191</v>
-      </c>
-      <c r="B102" t="str">
-        <f>A102&amp;COUNTIF($A$2:$A102,A102)</f>
-        <v>Draney2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>193</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>191</v>
-      </c>
-      <c r="B103" t="str">
-        <f>A103&amp;COUNTIF($A$2:$A103,A103)</f>
-        <v>Draney3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" t="s">
-        <v>158</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>191</v>
-      </c>
-      <c r="B104" t="str">
-        <f>A104&amp;COUNTIF($A$2:$A104,A104)</f>
-        <v>Draney4</v>
-      </c>
-      <c r="C104" t="s">
-        <v>194</v>
-      </c>
-      <c r="D104" t="s">
-        <v>191</v>
-      </c>
-      <c r="E104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>191</v>
-      </c>
-      <c r="B105" t="str">
-        <f>A105&amp;COUNTIF($A$2:$A105,A105)</f>
-        <v>Draney5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>195</v>
-      </c>
-      <c r="D105" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>191</v>
-      </c>
-      <c r="B106" t="str">
-        <f>A106&amp;COUNTIF($A$2:$A106,A106)</f>
-        <v>Draney6</v>
-      </c>
-      <c r="C106" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" t="s">
-        <v>198</v>
-      </c>
-      <c r="E106">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" t="str">
-        <f>A107&amp;COUNTIF($A$2:$A107,A107)</f>
-        <v>Draney7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" t="s">
-        <v>199</v>
-      </c>
-      <c r="E107">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>191</v>
-      </c>
-      <c r="B108" t="str">
-        <f>A108&amp;COUNTIF($A$2:$A108,A108)</f>
-        <v>Draney8</v>
-      </c>
-      <c r="C108" t="s">
-        <v>200</v>
-      </c>
-      <c r="D108" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>191</v>
-      </c>
-      <c r="B109" t="str">
-        <f>A109&amp;COUNTIF($A$2:$A109,A109)</f>
-        <v>Draney9</v>
-      </c>
-      <c r="C109" t="s">
-        <v>202</v>
-      </c>
-      <c r="D109" t="s">
-        <v>196</v>
-      </c>
-      <c r="E109">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" t="str">
-        <f>A110&amp;COUNTIF($A$2:$A110,A110)</f>
-        <v>Draney10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" t="str">
-        <f>A111&amp;COUNTIF($A$2:$A111,A111)</f>
-        <v>Draney11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" t="str">
-        <f>A112&amp;COUNTIF($A$2:$A112,A112)</f>
-        <v>Draney12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" t="s">
-        <v>206</v>
-      </c>
-      <c r="E112">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>207</v>
-      </c>
-      <c r="B113" t="str">
-        <f>A113&amp;COUNTIF($A$2:$A113,A113)</f>
-        <v>Berger1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" t="s">
-        <v>208</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" t="str">
-        <f>A114&amp;COUNTIF($A$2:$A114,A114)</f>
-        <v>Berger2</v>
-      </c>
-      <c r="C114" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" t="s">
-        <v>209</v>
-      </c>
-      <c r="E114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>207</v>
-      </c>
-      <c r="B115" t="str">
-        <f>A115&amp;COUNTIF($A$2:$A115,A115)</f>
-        <v>Berger3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>210</v>
-      </c>
-      <c r="D115" t="s">
-        <v>211</v>
-      </c>
-      <c r="E115">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>207</v>
-      </c>
-      <c r="B116" t="str">
-        <f>A116&amp;COUNTIF($A$2:$A116,A116)</f>
-        <v>Berger4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>212</v>
-      </c>
-      <c r="D116" t="s">
-        <v>213</v>
-      </c>
-      <c r="E116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>207</v>
-      </c>
-      <c r="B117" t="str">
-        <f>A117&amp;COUNTIF($A$2:$A117,A117)</f>
-        <v>Berger5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>214</v>
-      </c>
-      <c r="D117" t="s">
-        <v>207</v>
-      </c>
-      <c r="E117">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>207</v>
-      </c>
-      <c r="B118" t="str">
-        <f>A118&amp;COUNTIF($A$2:$A118,A118)</f>
-        <v>Berger6</v>
-      </c>
-      <c r="C118" t="s">
-        <v>215</v>
-      </c>
-      <c r="D118" t="s">
-        <v>216</v>
-      </c>
-      <c r="E118">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" t="str">
-        <f>A119&amp;COUNTIF($A$2:$A119,A119)</f>
-        <v>Berger7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>217</v>
-      </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>207</v>
-      </c>
-      <c r="B120" t="str">
-        <f>A120&amp;COUNTIF($A$2:$A120,A120)</f>
-        <v>Berger8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>218</v>
-      </c>
-      <c r="D120" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" t="str">
-        <f>A121&amp;COUNTIF($A$2:$A121,A121)</f>
-        <v>Berger9</v>
-      </c>
-      <c r="C121" t="s">
-        <v>219</v>
-      </c>
-      <c r="D121" t="s">
-        <v>220</v>
-      </c>
-      <c r="E121">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" t="str">
-        <f>A122&amp;COUNTIF($A$2:$A122,A122)</f>
-        <v>Fulton1</v>
-      </c>
-      <c r="C122" t="s">
-        <v>222</v>
-      </c>
-      <c r="D122" t="s">
-        <v>221</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>221</v>
-      </c>
-      <c r="B123" t="str">
-        <f>A123&amp;COUNTIF($A$2:$A123,A123)</f>
-        <v>Fulton2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>147</v>
-      </c>
-      <c r="D123" t="s">
-        <v>223</v>
-      </c>
-      <c r="E123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>221</v>
-      </c>
-      <c r="B124" t="str">
-        <f>A124&amp;COUNTIF($A$2:$A124,A124)</f>
-        <v>Fulton3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>224</v>
-      </c>
-      <c r="D124" t="s">
-        <v>225</v>
-      </c>
-      <c r="E124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>221</v>
-      </c>
-      <c r="B125" t="str">
-        <f>A125&amp;COUNTIF($A$2:$A125,A125)</f>
-        <v>Fulton4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>226</v>
-      </c>
-      <c r="D125" t="s">
-        <v>227</v>
-      </c>
-      <c r="E125">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>221</v>
-      </c>
-      <c r="B126" t="str">
-        <f>A126&amp;COUNTIF($A$2:$A126,A126)</f>
-        <v>Fulton5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>222</v>
-      </c>
-      <c r="D126" t="s">
-        <v>228</v>
-      </c>
-      <c r="E126">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" t="str">
-        <f>A127&amp;COUNTIF($A$2:$A127,A127)</f>
-        <v>Fulton6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>229</v>
-      </c>
-      <c r="D127" t="s">
-        <v>230</v>
-      </c>
-      <c r="E127">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>221</v>
-      </c>
-      <c r="B128" t="str">
-        <f>A128&amp;COUNTIF($A$2:$A128,A128)</f>
-        <v>Fulton7</v>
-      </c>
-      <c r="C128" t="s">
-        <v>231</v>
-      </c>
-      <c r="D128" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" t="str">
-        <f>A129&amp;COUNTIF($A$2:$A129,A129)</f>
-        <v>Fulton8</v>
-      </c>
-      <c r="C129" t="s">
-        <v>233</v>
-      </c>
-      <c r="D129" t="s">
-        <v>234</v>
-      </c>
-      <c r="E129">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>221</v>
-      </c>
-      <c r="B130" t="str">
-        <f>A130&amp;COUNTIF($A$2:$A130,A130)</f>
-        <v>Fulton9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130" t="s">
-        <v>236</v>
-      </c>
-      <c r="E130">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>237</v>
-      </c>
-      <c r="B131" t="str">
-        <f>A131&amp;COUNTIF($A$2:$A131,A131)</f>
-        <v>Egan1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>238</v>
-      </c>
-      <c r="D131" t="s">
-        <v>239</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>237</v>
-      </c>
-      <c r="B132" t="str">
-        <f>A132&amp;COUNTIF($A$2:$A132,A132)</f>
-        <v>Egan2</v>
-      </c>
-      <c r="C132" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" t="s">
-        <v>240</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>237</v>
-      </c>
-      <c r="B133" t="str">
-        <f>A133&amp;COUNTIF($A$2:$A133,A133)</f>
-        <v>Egan3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>241</v>
-      </c>
-      <c r="D133" t="s">
-        <v>242</v>
-      </c>
-      <c r="E133">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>237</v>
-      </c>
-      <c r="B134" t="str">
-        <f>A134&amp;COUNTIF($A$2:$A134,A134)</f>
-        <v>Egan4</v>
-      </c>
-      <c r="C134" t="s">
-        <v>243</v>
-      </c>
-      <c r="D134" t="s">
-        <v>244</v>
-      </c>
-      <c r="E134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" t="str">
-        <f>A135&amp;COUNTIF($A$2:$A135,A135)</f>
-        <v>Egan5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>126</v>
-      </c>
-      <c r="D135" t="s">
-        <v>245</v>
-      </c>
-      <c r="E135">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>237</v>
-      </c>
-      <c r="B136" t="str">
-        <f>A136&amp;COUNTIF($A$2:$A136,A136)</f>
-        <v>Egan6</v>
-      </c>
-      <c r="C136" t="s">
-        <v>146</v>
-      </c>
-      <c r="D136" t="s">
-        <v>237</v>
-      </c>
-      <c r="E136">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>237</v>
-      </c>
-      <c r="B137" t="str">
-        <f>A137&amp;COUNTIF($A$2:$A137,A137)</f>
-        <v>Egan7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>246</v>
-      </c>
-      <c r="D137" t="s">
-        <v>247</v>
-      </c>
-      <c r="E137">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>237</v>
-      </c>
-      <c r="B138" t="str">
-        <f>A138&amp;COUNTIF($A$2:$A138,A138)</f>
-        <v>Egan8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>248</v>
-      </c>
-      <c r="D138" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>237</v>
-      </c>
-      <c r="B139" t="str">
-        <f>A139&amp;COUNTIF($A$2:$A139,A139)</f>
-        <v>Egan9</v>
-      </c>
-      <c r="C139" t="s">
-        <v>249</v>
-      </c>
-      <c r="D139" t="s">
-        <v>234</v>
-      </c>
-      <c r="E139">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>237</v>
-      </c>
-      <c r="B140" t="str">
-        <f>A140&amp;COUNTIF($A$2:$A140,A140)</f>
-        <v>Egan10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>250</v>
-      </c>
-      <c r="D140" t="s">
-        <v>82</v>
-      </c>
-      <c r="E140">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>251</v>
-      </c>
-      <c r="B141" t="str">
-        <f>A141&amp;COUNTIF($A$2:$A141,A141)</f>
-        <v>Guest1</v>
-      </c>
-      <c r="C141" t="s">
-        <v>252</v>
-      </c>
-      <c r="D141" t="s">
-        <v>253</v>
-      </c>
-      <c r="E141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>251</v>
-      </c>
-      <c r="B142" t="str">
-        <f>A142&amp;COUNTIF($A$2:$A142,A142)</f>
-        <v>Guest2</v>
-      </c>
-      <c r="C142" t="s">
-        <v>63</v>
-      </c>
-      <c r="D142" t="s">
-        <v>254</v>
-      </c>
-      <c r="E142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" t="str">
-        <f>A143&amp;COUNTIF($A$2:$A143,A143)</f>
-        <v>Guest3</v>
-      </c>
-      <c r="C143" t="s">
-        <v>255</v>
-      </c>
-      <c r="D143" t="s">
-        <v>256</v>
-      </c>
-      <c r="E143">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>251</v>
-      </c>
-      <c r="B144" t="str">
-        <f>A144&amp;COUNTIF($A$2:$A144,A144)</f>
-        <v>Guest4</v>
-      </c>
-      <c r="C144" t="s">
-        <v>257</v>
-      </c>
-      <c r="D144" t="s">
-        <v>258</v>
-      </c>
-      <c r="E144">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Powder/Templates/Minutes G2.xlsx
+++ b/Powder/Templates/Minutes G2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charden/Desktop/curr_Chris/Sportsdada/sportsdada/Powder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D6420-0BC7-8145-826C-E1DC4F585513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00833CA-4AC9-1547-8251-A26491793168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="15340" xr2:uid="{C1019B66-1F64-450D-A1A7-B73F342DACE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="15340" activeTab="6" xr2:uid="{C1019B66-1F64-450D-A1A7-B73F342DACE7}"/>
   </bookViews>
   <sheets>
     <sheet name="G2 Q1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="185">
   <si>
     <t>Black</t>
   </si>
@@ -359,6 +359,264 @@
   </si>
   <si>
     <t>Brenden</t>
+  </si>
+  <si>
+    <t>Team Erickson</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Alrek</t>
+  </si>
+  <si>
+    <t>Greenhalgh</t>
+  </si>
+  <si>
+    <t>Gideon</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Nixon</t>
+  </si>
+  <si>
+    <t>Funk</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Erickson</t>
+  </si>
+  <si>
+    <t>Dayon</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>Team Joyce</t>
+  </si>
+  <si>
+    <t>Kur</t>
+  </si>
+  <si>
+    <t>Kuath</t>
+  </si>
+  <si>
+    <t>Neema</t>
+  </si>
+  <si>
+    <t>Namdar</t>
+  </si>
+  <si>
+    <t>Yoeli</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>Nield</t>
+  </si>
+  <si>
+    <t>Kylor</t>
+  </si>
+  <si>
+    <t>Kelley</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>Paulos</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
+    <t>Farrer</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Velez</t>
+  </si>
+  <si>
+    <t>Gerad</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Team Berger</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Van Dyke</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>Zac</t>
+  </si>
+  <si>
+    <t>Seljaas</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Zavon</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Butterfield</t>
+  </si>
+  <si>
+    <t>Rylan</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Sly</t>
+  </si>
+  <si>
+    <t>Viko</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Ashworth</t>
+  </si>
+  <si>
+    <t>Team Stan</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>Leach</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Zahir</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Davy</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Sneed</t>
+  </si>
+  <si>
+    <t>Rayjon</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Carlon</t>
+  </si>
+  <si>
+    <t>Quae</t>
+  </si>
+  <si>
+    <t>Furlow</t>
+  </si>
+  <si>
+    <t>Ibe</t>
+  </si>
+  <si>
+    <t>Gerlach</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Harmon</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
   </si>
 </sst>
 </file>
@@ -825,86 +1083,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58314894-21B6-A549-9C98-30BAE667893E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315200" y="203200"/>
-          <a:ext cx="5905500" cy="2540000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000"/>
-            <a:t>So this sheet</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" baseline="0"/>
-            <a:t> is where you put in the roster info. Just fill it in like the example data. You can ignore column B &amp; G, they are helper functions so that the other sheets run smooth. It will fill in automatically (unless B goes past 100 rows, then just copy the formula and paste it in the extra rows).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1204,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FB7466-370A-4333-A614-BC6A68244DE0}">
   <dimension ref="A1:BS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -26897,8 +27075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52229FC1-B3D9-D54E-A4FF-9AFB39912F4F}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26946,7 +27124,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="18" t="str" cm="1">
-        <f t="array" ref="G2:G6">_xlfn.UNIQUE(A2:A100)</f>
+        <f t="array" ref="G2:G10">_xlfn.UNIQUE(A2:A100)</f>
         <v>Team Egan</v>
       </c>
     </row>
@@ -27030,8 +27208,8 @@
       <c r="E6">
         <v>15</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
+      <c r="G6" s="18" t="str">
+        <v>Team Erickson</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -27051,6 +27229,9 @@
       <c r="E7">
         <v>7</v>
       </c>
+      <c r="G7" s="18" t="str">
+        <v>Team Joyce</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -27069,6 +27250,9 @@
       <c r="E8">
         <v>4</v>
       </c>
+      <c r="G8" s="18" t="str">
+        <v>Team Berger</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -27087,6 +27271,9 @@
       <c r="E9">
         <v>13</v>
       </c>
+      <c r="G9" s="18" t="str">
+        <v>Team Stan</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -27105,6 +27292,9 @@
       <c r="E10">
         <v>21</v>
       </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -27737,307 +27927,813 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
       <c r="B46" s="18" t="str">
         <f>A46&amp;COUNTIF($A$2:$A46,A46)</f>
-        <v>0</v>
+        <v>Team Erickson1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
       <c r="B47" s="18" t="str">
         <f>A47&amp;COUNTIF($A$2:$A47,A47)</f>
-        <v>0</v>
+        <v>Team Erickson2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
       <c r="B48" s="18" t="str">
         <f>A48&amp;COUNTIF($A$2:$A48,A48)</f>
-        <v>0</v>
+        <v>Team Erickson3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
       <c r="B49" s="18" t="str">
         <f>A49&amp;COUNTIF($A$2:$A49,A49)</f>
-        <v>0</v>
+        <v>Team Erickson4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
       <c r="B50" s="18" t="str">
         <f>A50&amp;COUNTIF($A$2:$A50,A50)</f>
-        <v>0</v>
+        <v>Team Erickson5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
       <c r="B51" s="18" t="str">
         <f>A51&amp;COUNTIF($A$2:$A51,A51)</f>
-        <v>0</v>
+        <v>Team Erickson6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
       <c r="B52" s="18" t="str">
         <f>A52&amp;COUNTIF($A$2:$A52,A52)</f>
+        <v>Team Erickson7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
       <c r="B53" s="18" t="str">
         <f>A53&amp;COUNTIF($A$2:$A53,A53)</f>
-        <v>0</v>
+        <v>Team Erickson8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53">
+        <v>35</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
       <c r="B54" s="18" t="str">
         <f>A54&amp;COUNTIF($A$2:$A54,A54)</f>
-        <v>0</v>
+        <v>Team Joyce1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
       <c r="B55" s="18" t="str">
         <f>A55&amp;COUNTIF($A$2:$A55,A55)</f>
+        <v>Team Joyce2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
       <c r="B56" s="18" t="str">
         <f>A56&amp;COUNTIF($A$2:$A56,A56)</f>
-        <v>0</v>
+        <v>Team Joyce3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
       <c r="B57" s="18" t="str">
         <f>A57&amp;COUNTIF($A$2:$A57,A57)</f>
-        <v>0</v>
+        <v>Team Joyce4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
       <c r="B58" s="18" t="str">
         <f>A58&amp;COUNTIF($A$2:$A58,A58)</f>
-        <v>0</v>
+        <v>Team Joyce5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58">
+        <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
       <c r="B59" s="18" t="str">
         <f>A59&amp;COUNTIF($A$2:$A59,A59)</f>
-        <v>0</v>
+        <v>Team Joyce6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59">
+        <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
       <c r="B60" s="18" t="str">
         <f>A60&amp;COUNTIF($A$2:$A60,A60)</f>
-        <v>0</v>
+        <v>Team Joyce7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
       <c r="B61" s="18" t="str">
         <f>A61&amp;COUNTIF($A$2:$A61,A61)</f>
-        <v>0</v>
+        <v>Team Joyce8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
       <c r="B62" s="18" t="str">
         <f>A62&amp;COUNTIF($A$2:$A62,A62)</f>
-        <v>0</v>
+        <v>Team Joyce9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62">
+        <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
       <c r="B63" s="18" t="str">
         <f>A63&amp;COUNTIF($A$2:$A63,A63)</f>
-        <v>0</v>
+        <v>Team Joyce10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
       <c r="B64" s="18" t="str">
         <f>A64&amp;COUNTIF($A$2:$A64,A64)</f>
-        <v>0</v>
+        <v>Team Joyce11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
       <c r="B65" s="18" t="str">
         <f>A65&amp;COUNTIF($A$2:$A65,A65)</f>
-        <v>0</v>
+        <v>Team Berger1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65">
+        <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
       <c r="B66" s="18" t="str">
         <f>A66&amp;COUNTIF($A$2:$A66,A66)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="11"/>
+        <v>Team Berger2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
       <c r="B67" s="18" t="str">
         <f>A67&amp;COUNTIF($A$2:$A67,A67)</f>
-        <v>0</v>
+        <v>Team Berger3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
       <c r="B68" s="18" t="str">
         <f>A68&amp;COUNTIF($A$2:$A68,A68)</f>
-        <v>0</v>
+        <v>Team Berger4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68">
+        <v>99</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
       <c r="B69" s="18" t="str">
         <f>A69&amp;COUNTIF($A$2:$A69,A69)</f>
-        <v>0</v>
+        <v>Team Berger5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69">
+        <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
       <c r="B70" s="18" t="str">
         <f>A70&amp;COUNTIF($A$2:$A70,A70)</f>
-        <v>0</v>
+        <v>Team Berger6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70">
+        <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
       <c r="B71" s="18" t="str">
         <f>A71&amp;COUNTIF($A$2:$A71,A71)</f>
-        <v>0</v>
+        <v>Team Berger7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
       <c r="B72" s="18" t="str">
         <f>A72&amp;COUNTIF($A$2:$A72,A72)</f>
-        <v>0</v>
+        <v>Team Berger8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72">
+        <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
       <c r="B73" s="18" t="str">
         <f>A73&amp;COUNTIF($A$2:$A73,A73)</f>
-        <v>0</v>
+        <v>Team Berger9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
       <c r="B74" s="18" t="str">
         <f>A74&amp;COUNTIF($A$2:$A74,A74)</f>
-        <v>0</v>
+        <v>Team Berger10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
       <c r="B75" s="18" t="str">
         <f>A75&amp;COUNTIF($A$2:$A75,A75)</f>
-        <v>0</v>
+        <v>Team Berger11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
       <c r="B76" s="18" t="str">
         <f>A76&amp;COUNTIF($A$2:$A76,A76)</f>
+        <v>Team Stan1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
       <c r="B77" s="18" t="str">
         <f>A77&amp;COUNTIF($A$2:$A77,A77)</f>
-        <v>0</v>
+        <v>Team Stan2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77">
+        <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
       <c r="B78" s="18" t="str">
         <f>A78&amp;COUNTIF($A$2:$A78,A78)</f>
-        <v>0</v>
+        <v>Team Stan3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
       <c r="B79" s="18" t="str">
         <f>A79&amp;COUNTIF($A$2:$A79,A79)</f>
-        <v>0</v>
+        <v>Team Stan4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
       <c r="B80" s="18" t="str">
         <f>A80&amp;COUNTIF($A$2:$A80,A80)</f>
-        <v>0</v>
+        <v>Team Stan5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
       <c r="B81" s="18" t="str">
         <f>A81&amp;COUNTIF($A$2:$A81,A81)</f>
-        <v>0</v>
+        <v>Team Stan6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
       <c r="B82" s="18" t="str">
         <f>A82&amp;COUNTIF($A$2:$A82,A82)</f>
-        <v>0</v>
+        <v>Team Stan7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
       <c r="B83" s="18" t="str">
         <f>A83&amp;COUNTIF($A$2:$A83,A83)</f>
-        <v>0</v>
+        <v>Team Stan8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83">
+        <v>59</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
       <c r="B84" s="18" t="str">
         <f>A84&amp;COUNTIF($A$2:$A84,A84)</f>
-        <v>0</v>
+        <v>Team Stan9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84">
+        <v>35</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
       <c r="B85" s="18" t="str">
         <f>A85&amp;COUNTIF($A$2:$A85,A85)</f>
-        <v>0</v>
+        <v>Team Stan10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
       <c r="B86" s="18" t="str">
         <f>A86&amp;COUNTIF($A$2:$A86,A86)</f>
-        <v>0</v>
+        <v>Team Stan11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
       <c r="B87" s="18" t="str">
         <f>A87&amp;COUNTIF($A$2:$A87,A87)</f>
-        <v>0</v>
+        <v>Team Stan12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
       <c r="B88" s="18" t="str">
         <f>A88&amp;COUNTIF($A$2:$A88,A88)</f>
-        <v>0</v>
+        <v>Team Stan13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B89" s="18" t="str">
         <f>A89&amp;COUNTIF($A$2:$A89,A89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="18" t="str">
         <f>A90&amp;COUNTIF($A$2:$A90,A90)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="str">
         <f>A91&amp;COUNTIF($A$2:$A91,A91)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92" s="18" t="str">
         <f>A92&amp;COUNTIF($A$2:$A92,A92)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" s="18" t="str">
         <f>A93&amp;COUNTIF($A$2:$A93,A93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="18" t="str">
         <f>A94&amp;COUNTIF($A$2:$A94,A94)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="str">
         <f>A95&amp;COUNTIF($A$2:$A95,A95)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="str">
         <f>A96&amp;COUNTIF($A$2:$A96,A96)</f>
         <v>0</v>
@@ -28069,6 +28765,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>